--- a/spreadsheet_automation.xlsx
+++ b/spreadsheet_automation.xlsx
@@ -5,22 +5,39 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\spreadsheet_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\电子表单自动化提醒\shared_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC91BD4-C6A5-49A0-951E-BE6293D87F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A05A7-C5B1-43AB-B8A5-6A303A28A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="-14250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,9 +70,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,10 +302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -296,19 +314,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>513010</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>513180</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>513380</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>159920</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>513580</v>
       </c>
     </row>
@@ -317,10 +338,10 @@
         <v>45061</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -328,10 +349,10 @@
         <v>45062</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -339,17 +360,39 @@
         <v>45063</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1000000</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B6">
+        <v>-1000000</v>
+      </c>
+      <c r="E6">
+        <v>1000000</v>
+      </c>
+      <c r="F6">
+        <v>-1000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheet_automation.xlsx
+++ b/spreadsheet_automation.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\电子表单自动化提醒\shared_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A05A7-C5B1-43AB-B8A5-6A303A28A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D4FA9-DE14-4B61-B831-BF171E0F03C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="-14250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10590" yWindow="-13545" windowWidth="17685" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,33 +33,220 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Raj Liu</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A62EEF6F-6DDE-49BD-AF8B-5B5A564C5360}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Raj Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+每指数点合约乘数x港元</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{897C939C-A86F-4DDE-A7FC-DBB3E455E09E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Raj Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1港币兑x人民币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9C0E90B5-5234-420C-98CA-1B70C38FF28F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Raj Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1美元兑x人民币</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>index_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplier </t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>etf_code</t>
+  </si>
+  <si>
+    <t>etf_price</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>HSTECH</t>
+  </si>
+  <si>
+    <t>HTIF2305</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>FX2</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>HSIF2305 mini</t>
+  </si>
+  <si>
+    <t>qdii_percent</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>index_future</t>
+  </si>
+  <si>
+    <t>currency_pair</t>
+  </si>
+  <si>
+    <t>CNH/USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,14 +254,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,6 +336,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -301,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -314,22 +565,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="14">
         <v>513010</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="14">
         <v>513180</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="14">
         <v>513380</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="14">
         <v>159920</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="14">
         <v>513580</v>
       </c>
     </row>
@@ -373,8 +624,10 @@
       <c r="A5" s="1">
         <v>45064</v>
       </c>
-      <c r="C5">
-        <v>1000000</v>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5">
+        <v>16000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -395,4 +648,279 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E0EB5-C177-4818-B1EC-164A16BE94EF}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B2" s="2">
+        <v>513010</v>
+      </c>
+      <c r="C2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3916.45</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.89376</v>
+      </c>
+      <c r="I2">
+        <v>0.95</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>6.9966999999999997</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B3" s="8">
+        <v>513180</v>
+      </c>
+      <c r="C3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3916.45</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.89376</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+      <c r="J3">
+        <v>0.31</v>
+      </c>
+      <c r="K3">
+        <v>0.69</v>
+      </c>
+      <c r="L3" s="6">
+        <v>6.9966999999999997</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B4" s="8">
+        <v>513380</v>
+      </c>
+      <c r="C4">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3916.45</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.89376</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6.9966999999999997</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B5" s="8">
+        <v>159920</v>
+      </c>
+      <c r="C5">
+        <v>1.119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
+        <v>19691.72</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.89376</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>6.9966999999999997</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B6" s="2">
+        <v>513580</v>
+      </c>
+      <c r="C6">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3916.45</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.89376</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>6.9966999999999997</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>